--- a/public/data/import-renca-template.xlsx
+++ b/public/data/import-renca-template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3CA79C-A6AE-964E-B068-B8F00197F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850EFE0-AA07-B947-A402-02A44F014E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1372,7 +1372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1395,11 +1395,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,14 +1450,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1782,79 +1828,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -2057,15 +2103,15 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="3" t="s">
         <v>48</v>
       </c>
@@ -2075,11 +2121,11 @@
       <c r="P10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3" t="s">
         <v>51</v>
@@ -2095,15 +2141,15 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="N11" s="3" t="s">
         <v>48</v>
       </c>
@@ -2113,11 +2159,11 @@
       <c r="P11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3" t="s">
         <v>51</v>
@@ -2135,15 +2181,15 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="3" t="s">
         <v>55</v>
       </c>
@@ -2153,11 +2199,11 @@
       <c r="P12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3" t="s">
         <v>58</v>
@@ -2597,15 +2643,15 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2615,11 +2661,11 @@
       <c r="P19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
         <v>51</v>
@@ -2637,15 +2683,15 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="3" t="s">
         <v>55</v>
       </c>
@@ -2655,11 +2701,11 @@
       <c r="P20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3" t="s">
         <v>58</v>
@@ -2821,26 +2867,26 @@
       <c r="F23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
@@ -2851,15 +2897,15 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="3" t="s">
         <v>48</v>
       </c>
@@ -2869,11 +2915,11 @@
       <c r="P24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3" t="s">
         <v>51</v>
@@ -2891,15 +2937,15 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2909,11 +2955,11 @@
       <c r="P25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3" t="s">
         <v>58</v>
@@ -3946,15 +3992,15 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
       <c r="N41" s="3" t="s">
         <v>48</v>
       </c>
@@ -3964,11 +4010,11 @@
       <c r="P41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3" t="s">
         <v>51</v>
@@ -3986,15 +4032,15 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="3" t="s">
         <v>55</v>
       </c>
@@ -4004,11 +4050,11 @@
       <c r="P42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3" t="s">
         <v>58</v>
@@ -4200,15 +4246,15 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="3" t="s">
         <v>48</v>
       </c>
@@ -4218,11 +4264,11 @@
       <c r="P46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3" t="s">
         <v>51</v>
@@ -4240,15 +4286,15 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="3" t="s">
         <v>55</v>
       </c>
@@ -4258,11 +4304,11 @@
       <c r="P47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3" t="s">
         <v>58</v>
@@ -6884,15 +6930,15 @@
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
       <c r="N86" s="3" t="s">
         <v>383</v>
       </c>
@@ -6902,11 +6948,11 @@
       <c r="P86" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3" t="s">
         <v>386</v>
@@ -7644,6 +7690,38 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="G23:X23"/>
+    <mergeCell ref="G86:M86"/>
+    <mergeCell ref="Q86:U86"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="G46:M46"/>
+    <mergeCell ref="Q46:U46"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
@@ -7659,38 +7737,6 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="G23:X23"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="G86:M86"/>
-    <mergeCell ref="Q86:U86"/>
-    <mergeCell ref="G47:M47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="G46:M46"/>
-    <mergeCell ref="Q46:U46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
